--- a/ゲーム制作仕様書.xlsx
+++ b/ゲーム制作仕様書.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="流れ" sheetId="2" r:id="rId2"/>
+    <sheet name="タスク" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +20,494 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>ゲームの流れ</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①遠征を行って物資を手に入れる。</t>
+    <rPh sb="1" eb="3">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②物資を使って基地を強化したり、影響力を使ってバフを受けたりする。</t>
+    <rPh sb="1" eb="3">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイキョウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③補給ラインと基地を防衛する。</t>
+    <rPh sb="1" eb="3">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ボウエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④防衛成功によって影響力を得る。</t>
+    <rPh sb="1" eb="3">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイキョウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タワーディフェンス仕様書</t>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム基本情報</t>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ハード：PC
+コントローラー：Xboxコントローラー
+プレイ人数：１～４人
+画面サイズ：８００ｘ６００（ウィンドウ）</t>
+    <rPh sb="30" eb="32">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大まかな目標：1ステージ全ての実装</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大まかな必要事項：プレイヤーの操作、遠征画面及びコマンドの作成、拠点強化画面及びコマンドの作成、味方と敵の挙動及びCPUの実装、拠点の防衛</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ボウエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー操作に必要：カメラ、移動、HP、スタミナ、銃や近接武器、アイテムの使用又は切り替え、銃のズーム、ポーズ画面</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キンセツブキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遠征に必要：遠征用のマップ画面、派遣する兵士の選択、入手アイテムの実装</t>
+    <rPh sb="0" eb="2">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拠点強化に必要：拠点強化用の画面、強化アイテムの実装、強化後の拠点の実装、拠点の配置機能の実装</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>キョテンキョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>キョウカゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>味方の実装に必要：簡単なAI(敵を見つけたら倒す)、移動、回転、銃と近接の切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拠点の防衛に必要：拠点のHP、ゲームオーバー</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の実装に必要：簡単なAI(敵や司令部を見つけたら攻撃)、移動、回転</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シレイブ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優先順位</t>
+    <rPh sb="0" eb="4">
+      <t>ユウセンジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー＞防衛＞強化＞遠征＞敵＞味方</t>
+    <rPh sb="6" eb="8">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +519,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +527,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +667,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +702,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +884,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="A8:I10"/>
+    <mergeCell ref="A11:I17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A9:H10"/>
+    <mergeCell ref="A13:H14"/>
+    <mergeCell ref="A17:H18"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B11:O13"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ゲーム制作仕様書.xlsx
+++ b/ゲーム制作仕様書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ゲームの流れ</t>
     <rPh sb="4" eb="5">
@@ -220,43 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プレイヤー操作に必要：カメラ、移動、HP、スタミナ、銃や近接武器、アイテムの使用又は切り替え、銃のズーム、ポーズ画面</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>キンセツブキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>遠征に必要：遠征用のマップ画面、派遣する兵士の選択、入手アイテムの実装</t>
     <rPh sb="0" eb="2">
       <t>エンセイ</t>
@@ -399,40 +362,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>敵の実装に必要：簡単なAI(敵や司令部を見つけたら攻撃)、移動、回転</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>シレイブ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>優先順位</t>
     <rPh sb="0" eb="4">
       <t>ユウセンジュンイ</t>
@@ -455,6 +384,87 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆完了</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー操作に必要：☆カメラ、☆移動、HP、スタミナ、銃や近接武器、アイテムの使用又は切り替え、//銃のズーム、ポーズ画面</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>キンセツブキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の実装に必要：簡単なAI(自軍の兵士や司令部を見つけたら攻撃)、移動、回転</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジグン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘイシ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>シレイブ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1188,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1239,7 +1249,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1258,7 +1268,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1277,7 +1287,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1296,7 +1306,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1315,7 +1325,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1334,7 +1344,7 @@
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,13 +1362,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/ゲーム制作仕様書.xlsx
+++ b/ゲーム制作仕様書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ゲームの流れ</t>
     <rPh sb="4" eb="5">
@@ -465,6 +465,84 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の実装に必要：簡単なAI(自軍の兵士や司令部を見つけたら攻撃)、移動</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジグン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘイシ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>シレイブ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>味方の実装に必要：簡単なAI(敵を見つけたら倒す)、移動</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー操作に必要：☆カメラ、☆移動、HP、銃</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1196,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1228,9 +1306,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1249,7 +1325,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1267,9 +1343,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1286,9 +1360,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1306,7 +1378,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1325,7 +1397,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1421,8 +1493,142 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B19:O19"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B11:O13"/>
     <mergeCell ref="A2:A9"/>
